--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948960.5097560328</v>
+        <v>-951840.8379160351</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.7215731265829</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>61.59803842819587</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>307.1478004369705</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>141.3865903334045</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.264003285458662</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>283.7547234855521</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>337.1351039673728</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>110.92720347361</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>145.07143439176</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>160.4239298479908</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>79.0701113550496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>86.78911478711561</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>1.706926911161474</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>64.82965959790938</v>
       </c>
       <c r="T13" t="n">
-        <v>72.9687828261433</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.60374025575897</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>17.9158234369996</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1895,13 +1895,13 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>7.729505493042338</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>152.3928251035499</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>54.36974327483788</v>
+        <v>165.7497191894484</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>2.119387955707482</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600556</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1125.191652989356</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="C2" t="n">
-        <v>1125.191652989356</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="D2" t="n">
-        <v>766.9259543826058</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>943.0295043420717</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>532.0435995524642</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>116.1632226569259</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>1901.93082502929</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>1901.93082502929</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1511.791493053478</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2467.882769124792</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C4" t="n">
-        <v>2467.882769124792</v>
+        <v>196.757719530874</v>
       </c>
       <c r="D4" t="n">
-        <v>2317.766129712456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>2695.87232002281</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>2467.882769124792</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>2467.882769124792</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.179761166176</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C5" t="n">
-        <v>787.2172442257645</v>
+        <v>1151.261476083314</v>
       </c>
       <c r="D5" t="n">
-        <v>787.2172442257645</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>401.4289916275202</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>394.4834908783168</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>616.0813039300605</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691493</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691493</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1717.512263598976</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.549746658564</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.549746658564</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="E8" t="n">
-        <v>962.76149406032</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>551.7755892707125</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>133.8117811688994</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598976</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.6087543326024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>141.6087543326024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>141.6087543326024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>141.6087543326024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>141.6087543326024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628421</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628421</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628421</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628421</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628421</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.2572191628421</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5039,19 +5039,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
         <v>3654.445485610258</v>
@@ -5121,22 +5121,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>142.676769632785</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L12" t="n">
-        <v>142.676769632785</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M12" t="n">
-        <v>734.6951238849127</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.4858260316502</v>
+        <v>680.6407456058158</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>680.6407456058158</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>530.5241061934801</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5661455390109</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5221,28 +5221,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2363.927994691342</v>
       </c>
       <c r="T13" t="n">
-        <v>2104.677122794597</v>
+        <v>2144.249212405723</v>
       </c>
       <c r="U13" t="n">
-        <v>1815.600909109324</v>
+        <v>1855.172998720451</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.916420903437</v>
+        <v>1600.488510514564</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.916420903437</v>
+        <v>1311.071340477603</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.92687000542</v>
+        <v>1083.081789579586</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.13429086189</v>
+        <v>862.2892104360556</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,7 +5264,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5276,13 +5276,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M14" t="n">
         <v>2234.298471234014</v>
@@ -5358,22 +5358,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149658</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0894235587172</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.107777810845</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N15" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O15" t="n">
-        <v>2053.984252811039</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.567771237115</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.0284588996639</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="C16" t="n">
-        <v>559.092275971757</v>
+        <v>575.6673418914316</v>
       </c>
       <c r="D16" t="n">
-        <v>408.9756365594213</v>
+        <v>575.6673418914316</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0625429770282</v>
+        <v>427.7542483090385</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0625429770282</v>
+        <v>280.8643008111281</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160703</v>
+        <v>113.650105985707</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>113.650105985707</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5461,25 +5461,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2411.31570798519</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.636925699572</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.560712014299</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.876223808412</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.459053771451</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.469502873434</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6769237299036</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="17">
@@ -5528,13 +5528,13 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5546,7 +5546,7 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
         <v>3821.234779402499</v>
@@ -5592,25 +5592,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>142.6767696327857</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849133</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9822234696674</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9822234696674</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8655840573316</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9524904749385</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0625429770282</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5698,25 +5698,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2207.621007724953</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>1987.942225439336</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1698.866011754062</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1444.181523548175</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1154.764353511215</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>926.7748026131975</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>705.9822234696674</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5765,13 +5765,13 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5829,13 +5829,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668117</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="L21" t="n">
-        <v>572.0050724668117</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M21" t="n">
         <v>734.6951238849133</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.791123359144</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C22" t="n">
-        <v>847.854940431237</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D22" t="n">
-        <v>697.7383010189012</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E22" t="n">
-        <v>549.8252074365081</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2246.242309074625</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.323376473778</v>
+        <v>1791.280222970287</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.638888267892</v>
+        <v>1791.280222970287</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.221718230931</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.232167332914</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.439588189384</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6066,25 +6066,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>504.6016741736174</v>
       </c>
       <c r="L24" t="n">
-        <v>562.2602880588616</v>
+        <v>995.3340070173687</v>
       </c>
       <c r="M24" t="n">
-        <v>1154.278642310989</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="N24" t="n">
-        <v>1776.374605710325</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O24" t="n">
-        <v>2323.25108071052</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>243.9022376488562</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>95.98914406646307</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>95.98914406646307</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G25" t="n">
-        <v>95.98914406646307</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>95.98914406646307</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,22 +6862,22 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,28 +6932,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150024</v>
@@ -7561,7 +7561,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,31 +7573,31 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>51.31264782909182</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>2.062596894212086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>182.5829932282042</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>42.09316828044251</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>116.5088287605496</v>
       </c>
       <c r="T13" t="n">
-        <v>144.5132116366185</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>62.20083648865006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108751</v>
       </c>
       <c r="S16" t="n">
-        <v>163.4226649214594</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986296</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>138.7044571535268</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.94566325490902</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>231.8157082735825</v>
+        <v>120.435732358972</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>79.68518878870155</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.227906792921181e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-2.629008122312371e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169831.6691086302</v>
+        <v>169831.6691086303</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26323,37 +26323,37 @@
         <v>201670.7442796397</v>
       </c>
       <c r="F2" t="n">
-        <v>201670.7442796398</v>
+        <v>201670.7442796397</v>
       </c>
       <c r="G2" t="n">
         <v>201670.7442796398</v>
       </c>
       <c r="H2" t="n">
-        <v>201670.7442796398</v>
+        <v>201670.7442796396</v>
       </c>
       <c r="I2" t="n">
-        <v>201670.7442796398</v>
+        <v>201670.7442796399</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="M2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="N2" t="n">
+        <v>205260.442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.4424660709</v>
       </c>
-      <c r="M2" t="n">
-        <v>205260.4424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>205260.442466071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363192</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.211390137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869545</v>
+        <v>120178.1964869546</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855098</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855107</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="G4" t="n">
+        <v>5781.971894855169</v>
+      </c>
+      <c r="H4" t="n">
         <v>5781.971894855118</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5781.971894855114</v>
       </c>
       <c r="I4" t="n">
         <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476392</v>
       </c>
-      <c r="M4" t="n">
-        <v>13058.45186476389</v>
-      </c>
       <c r="N4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623173.4846562782</v>
+        <v>-623527.7723898526</v>
       </c>
       <c r="C6" t="n">
         <v>-78663.14152507021</v>
@@ -26528,40 +26528,40 @@
         <v>-78663.14152507021</v>
       </c>
       <c r="E6" t="n">
-        <v>-841550.9325269662</v>
+        <v>-841586.8295088304</v>
       </c>
       <c r="F6" t="n">
-        <v>94958.73292754617</v>
+        <v>94922.83594568177</v>
       </c>
       <c r="G6" t="n">
-        <v>94958.73292754631</v>
+        <v>94922.83594568174</v>
       </c>
       <c r="H6" t="n">
-        <v>94958.73292754611</v>
+        <v>94922.83594568168</v>
       </c>
       <c r="I6" t="n">
-        <v>94958.73292754617</v>
+        <v>94922.83594568189</v>
       </c>
       <c r="J6" t="n">
-        <v>-88072.48188229857</v>
+        <v>-88107.21980773426</v>
       </c>
       <c r="K6" t="n">
-        <v>95596.52749692394</v>
+        <v>95561.78957148833</v>
       </c>
       <c r="L6" t="n">
-        <v>69610.1567537598</v>
+        <v>69610.15675375998</v>
       </c>
       <c r="M6" t="n">
-        <v>-35269.33664274568</v>
+        <v>-35269.33664274515</v>
       </c>
       <c r="N6" t="n">
-        <v>89037.87474739167</v>
+        <v>89037.87474739164</v>
       </c>
       <c r="O6" t="n">
         <v>89037.87474739164</v>
       </c>
       <c r="P6" t="n">
-        <v>89037.87474739162</v>
+        <v>89037.87474739167</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>262.3247343361613</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>33.86532712945359</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.228882684807871</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>285.2589950511323</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>70.92831813513084</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76.64906605342219</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>101.2183354764089</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>80.63822099727713</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>221.5064402242709</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>244.8526614093075</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.5206874719353</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3281785469228</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28615,13 +28615,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,7 +31832,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>187.1630768341347</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0369088927397</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396507</v>
+        <v>361.6013389488608</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504301</v>
@@ -32330,10 +32330,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>187.1630768341355</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>306.467419192828</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927637</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>403.6044129846262</v>
       </c>
       <c r="L24" t="n">
-        <v>611.6977534235657</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>49.32163785977568</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>779.6000841311486</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.05513480671823</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
         <v>553.8443926134828</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977649</v>
+        <v>223.0469591689865</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284117</v>
@@ -35978,10 +35978,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P20" t="n">
         <v>553.8443926134828</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>164.3333852708097</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094305</v>
@@ -36361,7 +36361,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955309</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
         <v>728.287436302058</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>265.7629740102672</v>
       </c>
       <c r="L24" t="n">
-        <v>473.1433736436916</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
